--- a/docs/excel/TMapEvent.xlsx
+++ b/docs/excel/TMapEvent.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
   <si>
     <t>Id</t>
   </si>
@@ -150,6 +150,23 @@
   </si>
   <si>
     <t>奖励</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>ListSpliter: ";"</t>
+  </si>
+  <si>
+    <r>
+      <t>i</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>d-num;id-num</t>
+    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -598,7 +615,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -667,6 +684,9 @@
         <v>2</v>
       </c>
       <c r="E3" s="8"/>
+      <c r="F3" s="4" t="s">
+        <v>34</v>
+      </c>
       <c r="K3" s="9"/>
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
@@ -703,7 +723,9 @@
       <c r="C5" s="6"/>
       <c r="D5" s="15"/>
       <c r="E5"/>
-      <c r="F5"/>
+      <c r="F5" s="12" t="s">
+        <v>35</v>
+      </c>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">

--- a/docs/excel/TMapEvent.xlsx
+++ b/docs/excel/TMapEvent.xlsx
@@ -9,13 +9,14 @@
   <sheets>
     <sheet name="TMapEvent" sheetId="1" r:id="rId1"/>
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
+    <sheet name="#" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
   <si>
     <t>Id</t>
   </si>
@@ -156,17 +157,39 @@
     <t>ListSpliter: ";"</t>
   </si>
   <si>
-    <r>
-      <t>i</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>d-num;id-num</t>
-    </r>
+    <t>类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型说明</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机奖励</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>建筑</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩游戏得金币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机奖励</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>商店</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1;2-2</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -615,7 +638,7 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -674,7 +697,7 @@
         <v>22</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -719,33 +742,51 @@
       <c r="A5">
         <v>1</v>
       </c>
-      <c r="B5"/>
-      <c r="C5" s="6"/>
-      <c r="D5" s="15"/>
+      <c r="B5" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="6">
+        <v>3</v>
+      </c>
+      <c r="D5" s="15">
+        <v>1</v>
+      </c>
       <c r="E5"/>
-      <c r="F5" s="12" t="s">
-        <v>35</v>
-      </c>
+      <c r="F5" s="12"/>
       <c r="H5" s="6"/>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>2</v>
       </c>
-      <c r="B6"/>
-      <c r="C6" s="6"/>
-      <c r="D6" s="15"/>
+      <c r="B6" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="C6" s="6">
+        <v>3</v>
+      </c>
+      <c r="D6" s="15">
+        <v>1</v>
+      </c>
       <c r="E6"/>
-      <c r="F6"/>
+      <c r="F6" s="12" t="s">
+        <v>43</v>
+      </c>
       <c r="H6" s="6"/>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>3</v>
       </c>
-      <c r="B7"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="15"/>
+      <c r="B7" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C7" s="6">
+        <v>3</v>
+      </c>
+      <c r="D7" s="15">
+        <v>0</v>
+      </c>
       <c r="E7"/>
       <c r="F7"/>
       <c r="H7" s="6"/>
@@ -911,4 +952,53 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/docs/excel/TMapEvent.xlsx
+++ b/docs/excel/TMapEvent.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
   <si>
     <t>Id</t>
   </si>
@@ -25,9 +25,6 @@
   </si>
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
-  </si>
-  <si>
-    <t>ID</t>
   </si>
   <si>
     <t>ObjectType</t>
@@ -181,15 +178,97 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>随机奖励</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>商店</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
+    <r>
+      <t>u</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>int32</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ID</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>规则类型</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">*1000 + </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+      </rPr>
+      <t>顺序数</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Type</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>类型</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机奖励金币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机奖励体力</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
     <t>1-1;2-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩游戏得金币</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>玩游戏得道具</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -206,6 +285,7 @@
     <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -635,230 +715,328 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="39.5" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15" style="4" customWidth="1"/>
-    <col min="3" max="3" width="27.59765625" style="4" customWidth="1"/>
-    <col min="4" max="4" width="12.8984375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="12.796875" style="4" customWidth="1"/>
-    <col min="6" max="6" width="12.8984375" style="4" customWidth="1"/>
-    <col min="8" max="8" width="10.59765625" customWidth="1"/>
-    <col min="9" max="9" width="23.8984375" customWidth="1"/>
-    <col min="10" max="10" width="24.3984375" customWidth="1"/>
-    <col min="12" max="12" width="12.8984375" customWidth="1"/>
-    <col min="13" max="13" width="14.8984375" customWidth="1"/>
+    <col min="2" max="2" width="29.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15" style="4" customWidth="1"/>
+    <col min="4" max="4" width="27.59765625" style="4" customWidth="1"/>
+    <col min="5" max="5" width="12.8984375" style="5" customWidth="1"/>
+    <col min="6" max="6" width="12.796875" style="4" customWidth="1"/>
+    <col min="7" max="7" width="12.8984375" style="4" customWidth="1"/>
+    <col min="9" max="9" width="10.59765625" customWidth="1"/>
+    <col min="10" max="10" width="23.8984375" customWidth="1"/>
+    <col min="11" max="11" width="24.3984375" customWidth="1"/>
+    <col min="13" max="13" width="12.8984375" customWidth="1"/>
+    <col min="14" max="14" width="14.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>24</v>
+        <v>43</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="D1" s="12" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E1" s="12" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="G1" s="6"/>
-      <c r="K1" s="6"/>
+        <v>20</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="H1" s="6"/>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="N1" s="6"/>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>25</v>
+        <v>41</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D2" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>26</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="H2" s="6"/>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="I2" s="6"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="E3" s="8"/>
-      <c r="F3" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="9"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A4" s="6" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>26</v>
+      <c r="N3" s="9"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A4" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>44</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D4" s="13" t="s">
-        <v>29</v>
-      </c>
-      <c r="E4" s="16" t="s">
-        <v>23</v>
+        <v>25</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>28</v>
       </c>
       <c r="F4" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="G4" s="9"/>
+        <v>22</v>
+      </c>
+      <c r="G4" s="16" t="s">
+        <v>32</v>
+      </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="K4" s="9"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A5">
+        <v>1001</v>
+      </c>
+      <c r="B5">
         <v>1</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="C5" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" s="6">
+        <v>3</v>
+      </c>
+      <c r="E5" s="15">
+        <v>1</v>
+      </c>
+      <c r="F5"/>
+      <c r="G5" s="12"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>1002</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="D6" s="6">
+        <v>3</v>
+      </c>
+      <c r="E6" s="15">
+        <v>1</v>
+      </c>
+      <c r="F6"/>
+      <c r="G6" s="12"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>1003</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="6">
+        <v>3</v>
+      </c>
+      <c r="E7" s="15">
+        <v>1</v>
+      </c>
+      <c r="F7"/>
+      <c r="G7" s="12"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>2001</v>
+      </c>
+      <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="6">
+        <v>3</v>
+      </c>
+      <c r="E8" s="15">
+        <v>1</v>
+      </c>
+      <c r="F8"/>
+      <c r="G8" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>2002</v>
+      </c>
+      <c r="B9">
+        <v>2</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="6">
+        <v>3</v>
+      </c>
+      <c r="E9" s="15">
+        <v>1</v>
+      </c>
+      <c r="F9"/>
+      <c r="G9" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>3001</v>
+      </c>
+      <c r="B10">
+        <v>3</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="C5" s="6">
+      <c r="D10" s="6">
         <v>3</v>
       </c>
-      <c r="D5" s="15">
-        <v>1</v>
-      </c>
-      <c r="E5"/>
-      <c r="F5" s="12"/>
-      <c r="H5" s="6"/>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>41</v>
-      </c>
-      <c r="C6" s="6">
+      <c r="E10" s="15">
+        <v>0</v>
+      </c>
+      <c r="F10"/>
+      <c r="G10"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>3002</v>
+      </c>
+      <c r="B11">
         <v>3</v>
       </c>
-      <c r="D6" s="15">
-        <v>1</v>
-      </c>
-      <c r="E6"/>
-      <c r="F6" s="12" t="s">
-        <v>43</v>
-      </c>
-      <c r="H6" s="6"/>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="C11" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="6">
         <v>3</v>
       </c>
-      <c r="B7" s="16" t="s">
-        <v>42</v>
-      </c>
-      <c r="C7" s="6">
-        <v>3</v>
-      </c>
-      <c r="D7" s="15">
+      <c r="E11" s="15">
         <v>0</v>
       </c>
-      <c r="E7"/>
-      <c r="F7"/>
-      <c r="H7" s="6"/>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A8"/>
-      <c r="B8"/>
-      <c r="C8" s="6"/>
-      <c r="D8" s="15"/>
-      <c r="E8"/>
-      <c r="F8"/>
-      <c r="H8" s="6"/>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9"/>
-      <c r="B9"/>
-      <c r="C9" s="6"/>
-      <c r="D9" s="15"/>
-      <c r="E9"/>
-      <c r="F9"/>
-      <c r="H9" s="6"/>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10"/>
-      <c r="B10"/>
-      <c r="C10" s="6"/>
-      <c r="D10" s="10"/>
-      <c r="E10"/>
-      <c r="F10"/>
-      <c r="H10" s="6"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A11"/>
-      <c r="B11"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="11"/>
-      <c r="E11"/>
       <c r="F11"/>
-      <c r="H11" s="6"/>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G11"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A12"/>
       <c r="B12"/>
-      <c r="C12" s="6"/>
-      <c r="D12" s="7"/>
-      <c r="E12"/>
+      <c r="C12"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="15"/>
       <c r="F12"/>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G12"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A13"/>
       <c r="B13"/>
-      <c r="C13" s="6"/>
-      <c r="D13" s="11"/>
-      <c r="E13"/>
+      <c r="C13"/>
+      <c r="D13" s="6"/>
+      <c r="E13" s="10"/>
       <c r="F13"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="G13"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A14"/>
       <c r="B14"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="11"/>
-      <c r="E14"/>
+      <c r="C14"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="11"/>
       <c r="F14"/>
-      <c r="H14" s="6"/>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="H15" s="6"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="H16" s="6"/>
+      <c r="G14"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A15"/>
+      <c r="B15"/>
+      <c r="C15"/>
+      <c r="D15" s="6"/>
+      <c r="E15" s="7"/>
+      <c r="F15"/>
+      <c r="G15"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A16"/>
+      <c r="B16"/>
+      <c r="C16"/>
+      <c r="D16" s="6"/>
+      <c r="E16" s="11"/>
+      <c r="F16"/>
+      <c r="G16"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A17"/>
+      <c r="B17"/>
+      <c r="C17"/>
+      <c r="D17" s="6"/>
+      <c r="E17" s="11"/>
+      <c r="F17"/>
+      <c r="G17"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I18" s="6"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="I19" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
@@ -888,59 +1066,59 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>18</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -966,10 +1144,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>35</v>
-      </c>
-      <c r="B1" s="16" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -977,7 +1155,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -985,7 +1163,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -993,7 +1171,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>

--- a/docs/excel/TMapEvent.xlsx
+++ b/docs/excel/TMapEvent.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
   <si>
     <t>Id</t>
   </si>
@@ -171,14 +171,6 @@
   </si>
   <si>
     <t>建筑</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩游戏得金币</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>商店</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -264,11 +256,27 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>玩游戏得金币</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>玩游戏得道具</t>
+    <t>弹弹乐</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>超市钩物</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>红包翻翻乐</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>女仆商店</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>汽车配件商店</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>房屋升级碎片商店</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -718,7 +726,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -742,7 +750,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C1" s="12" t="s">
         <v>23</v>
@@ -769,7 +777,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C2" s="12" t="s">
         <v>24</v>
@@ -803,10 +811,10 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>42</v>
-      </c>
-      <c r="B4" s="9" t="s">
-        <v>44</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>25</v>
@@ -836,7 +844,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D5" s="6">
         <v>3</v>
@@ -855,8 +863,8 @@
       <c r="B6">
         <v>1</v>
       </c>
-      <c r="C6" s="16" t="s">
-        <v>39</v>
+      <c r="C6" s="9" t="s">
+        <v>47</v>
       </c>
       <c r="D6" s="6">
         <v>3</v>
@@ -876,7 +884,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" s="6">
         <v>3</v>
@@ -896,7 +904,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D8" s="6">
         <v>3</v>
@@ -906,7 +914,7 @@
       </c>
       <c r="F8"/>
       <c r="G8" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I8" s="6"/>
     </row>
@@ -918,7 +926,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D9" s="6">
         <v>3</v>
@@ -928,7 +936,7 @@
       </c>
       <c r="F9"/>
       <c r="G9" s="12" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="I9" s="6"/>
     </row>
@@ -939,8 +947,8 @@
       <c r="B10">
         <v>3</v>
       </c>
-      <c r="C10" s="16" t="s">
-        <v>40</v>
+      <c r="C10" s="9" t="s">
+        <v>49</v>
       </c>
       <c r="D10" s="6">
         <v>3</v>
@@ -959,8 +967,8 @@
       <c r="B11">
         <v>3</v>
       </c>
-      <c r="C11" s="16" t="s">
-        <v>40</v>
+      <c r="C11" s="9" t="s">
+        <v>50</v>
       </c>
       <c r="D11" s="6">
         <v>3</v>
@@ -973,11 +981,21 @@
       <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12"/>
-      <c r="B12"/>
-      <c r="C12"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="15"/>
+      <c r="A12">
+        <v>3003</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="6">
+        <v>3</v>
+      </c>
+      <c r="E12" s="15">
+        <v>0</v>
+      </c>
       <c r="F12"/>
       <c r="G12"/>
       <c r="I12" s="6"/>

--- a/docs/excel/TMapEvent.xlsx
+++ b/docs/excel/TMapEvent.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
   <si>
     <t>Id</t>
   </si>
@@ -277,6 +277,13 @@
   </si>
   <si>
     <t>房屋升级碎片商店</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>/treasure/ClientBoss/resource/others/images/eventsicon/3003.png</t>
+  </si>
+  <si>
+    <t>/treasure/ClientBoss/resource/others/images/eventsicon/3003.png</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -726,7 +733,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -736,7 +743,7 @@
     <col min="3" max="3" width="15" style="4" customWidth="1"/>
     <col min="4" max="4" width="27.59765625" style="4" customWidth="1"/>
     <col min="5" max="5" width="12.8984375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="12.796875" style="4" customWidth="1"/>
+    <col min="6" max="6" width="57.3984375" style="4" customWidth="1"/>
     <col min="7" max="7" width="12.8984375" style="4" customWidth="1"/>
     <col min="9" max="9" width="10.59765625" customWidth="1"/>
     <col min="10" max="10" width="23.8984375" customWidth="1"/>
@@ -852,7 +859,9 @@
       <c r="E5" s="15">
         <v>1</v>
       </c>
-      <c r="F5"/>
+      <c r="F5" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="G5" s="12"/>
       <c r="I5" s="6"/>
     </row>
@@ -872,7 +881,9 @@
       <c r="E6" s="15">
         <v>1</v>
       </c>
-      <c r="F6"/>
+      <c r="F6" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="G6" s="12"/>
       <c r="I6" s="6"/>
     </row>
@@ -892,7 +903,9 @@
       <c r="E7" s="15">
         <v>1</v>
       </c>
-      <c r="F7"/>
+      <c r="F7" s="12" t="s">
+        <v>52</v>
+      </c>
       <c r="G7" s="12"/>
       <c r="I7" s="6"/>
     </row>
@@ -912,7 +925,9 @@
       <c r="E8" s="15">
         <v>1</v>
       </c>
-      <c r="F8"/>
+      <c r="F8" s="12" t="s">
+        <v>52</v>
+      </c>
       <c r="G8" s="12" t="s">
         <v>45</v>
       </c>
@@ -934,7 +949,9 @@
       <c r="E9" s="15">
         <v>1</v>
       </c>
-      <c r="F9"/>
+      <c r="F9" s="12" t="s">
+        <v>52</v>
+      </c>
       <c r="G9" s="12" t="s">
         <v>45</v>
       </c>
@@ -956,7 +973,9 @@
       <c r="E10" s="15">
         <v>0</v>
       </c>
-      <c r="F10"/>
+      <c r="F10" s="12" t="s">
+        <v>52</v>
+      </c>
       <c r="G10"/>
       <c r="I10" s="6"/>
     </row>
@@ -976,7 +995,9 @@
       <c r="E11" s="15">
         <v>0</v>
       </c>
-      <c r="F11"/>
+      <c r="F11" s="12" t="s">
+        <v>52</v>
+      </c>
       <c r="G11"/>
       <c r="I11" s="6"/>
     </row>
@@ -996,7 +1017,9 @@
       <c r="E12" s="15">
         <v>0</v>
       </c>
-      <c r="F12"/>
+      <c r="F12" s="12" t="s">
+        <v>52</v>
+      </c>
       <c r="G12"/>
       <c r="I12" s="6"/>
     </row>

--- a/docs/excel/TMapEvent.xlsx
+++ b/docs/excel/TMapEvent.xlsx
@@ -280,10 +280,10 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>/treasure/ClientBoss/resource/others/images/eventsicon/3003.png</t>
-  </si>
-  <si>
-    <t>/treasure/ClientBoss/resource/others/images/eventsicon/3003.png</t>
+    <t>eventsicon/3003.png</t>
+  </si>
+  <si>
+    <t>eventsicon/3003.png</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -733,7 +733,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/docs/excel/TMapEvent.xlsx
+++ b/docs/excel/TMapEvent.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
   <si>
     <t>Id</t>
   </si>
@@ -284,6 +284,102 @@
   </si>
   <si>
     <t>eventsicon/3003.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>Params</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>1-1;2-2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-3</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-1</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-2</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t>-3</t>
+    </r>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>切场景</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -733,7 +829,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -743,7 +839,7 @@
     <col min="3" max="3" width="15" style="4" customWidth="1"/>
     <col min="4" max="4" width="27.59765625" style="4" customWidth="1"/>
     <col min="5" max="5" width="12.8984375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="57.3984375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="21.09765625" style="4" customWidth="1"/>
     <col min="7" max="7" width="12.8984375" style="4" customWidth="1"/>
     <col min="9" max="9" width="10.59765625" customWidth="1"/>
     <col min="10" max="10" width="23.8984375" customWidth="1"/>
@@ -774,7 +870,9 @@
       <c r="G1" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="H1" s="6"/>
+      <c r="H1" s="12" t="s">
+        <v>54</v>
+      </c>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
@@ -801,7 +899,9 @@
       <c r="G2" s="12" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="6"/>
+      <c r="H2" s="12" t="s">
+        <v>21</v>
+      </c>
       <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
@@ -838,7 +938,9 @@
       <c r="G4" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="H4" s="9"/>
+      <c r="H4" s="9" t="s">
+        <v>62</v>
+      </c>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
       <c r="K4" s="9"/>
@@ -863,6 +965,9 @@
         <v>53</v>
       </c>
       <c r="G5" s="12"/>
+      <c r="H5" s="14" t="s">
+        <v>55</v>
+      </c>
       <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.2">
@@ -885,6 +990,9 @@
         <v>53</v>
       </c>
       <c r="G6" s="12"/>
+      <c r="H6" s="14" t="s">
+        <v>57</v>
+      </c>
       <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
@@ -907,6 +1015,9 @@
         <v>52</v>
       </c>
       <c r="G7" s="12"/>
+      <c r="H7" s="14" t="s">
+        <v>58</v>
+      </c>
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
@@ -929,8 +1040,9 @@
         <v>52</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>45</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="H8" s="11"/>
       <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
@@ -955,6 +1067,7 @@
       <c r="G9" s="12" t="s">
         <v>45</v>
       </c>
+      <c r="H9" s="11"/>
       <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
@@ -977,6 +1090,9 @@
         <v>52</v>
       </c>
       <c r="G10"/>
+      <c r="H10" s="14" t="s">
+        <v>59</v>
+      </c>
       <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
@@ -999,6 +1115,9 @@
         <v>52</v>
       </c>
       <c r="G11"/>
+      <c r="H11" s="14" t="s">
+        <v>60</v>
+      </c>
       <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
@@ -1021,6 +1140,9 @@
         <v>52</v>
       </c>
       <c r="G12"/>
+      <c r="H12" s="14" t="s">
+        <v>61</v>
+      </c>
       <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -1095,7 +1217,7 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15" x14ac:dyDescent="0.2"/>

--- a/docs/excel/TMapEvent.xlsx
+++ b/docs/excel/TMapEvent.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
   <si>
     <t>Id</t>
   </si>
@@ -252,10 +252,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1-1;2-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>弹弹乐</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -305,10 +301,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>1-1;2-2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <r>
       <t>1</t>
     </r>
@@ -380,6 +372,18 @@
   </si>
   <si>
     <t>切场景</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>[]string</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>60003-10;60003-20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>60001-10;60001-20</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -828,8 +832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -840,7 +844,7 @@
     <col min="4" max="4" width="27.59765625" style="4" customWidth="1"/>
     <col min="5" max="5" width="12.8984375" style="5" customWidth="1"/>
     <col min="6" max="6" width="21.09765625" style="4" customWidth="1"/>
-    <col min="7" max="7" width="12.8984375" style="4" customWidth="1"/>
+    <col min="7" max="7" width="23" style="4" customWidth="1"/>
     <col min="9" max="9" width="10.59765625" customWidth="1"/>
     <col min="10" max="10" width="23.8984375" customWidth="1"/>
     <col min="11" max="11" width="24.3984375" customWidth="1"/>
@@ -871,7 +875,7 @@
         <v>31</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
@@ -897,7 +901,7 @@
         <v>21</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>21</v>
+        <v>61</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>21</v>
@@ -939,7 +943,7 @@
         <v>32</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -953,7 +957,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D5" s="6">
         <v>3</v>
@@ -962,11 +966,11 @@
         <v>1</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I5" s="6"/>
     </row>
@@ -978,7 +982,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D6" s="6">
         <v>3</v>
@@ -987,11 +991,11 @@
         <v>1</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="14" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="I6" s="6"/>
     </row>
@@ -1003,7 +1007,7 @@
         <v>1</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D7" s="6">
         <v>3</v>
@@ -1012,11 +1016,11 @@
         <v>1</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="14" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I7" s="6"/>
     </row>
@@ -1037,10 +1041,10 @@
         <v>1</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>56</v>
+        <v>62</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="6"/>
@@ -1062,10 +1066,10 @@
         <v>1</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>45</v>
+        <v>63</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="6"/>
@@ -1078,7 +1082,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D10" s="6">
         <v>3</v>
@@ -1087,11 +1091,11 @@
         <v>0</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G10"/>
       <c r="H10" s="14" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I10" s="6"/>
     </row>
@@ -1103,7 +1107,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" s="6">
         <v>3</v>
@@ -1112,11 +1116,11 @@
         <v>0</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G11"/>
       <c r="H11" s="14" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I11" s="6"/>
     </row>
@@ -1128,7 +1132,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D12" s="6">
         <v>3</v>
@@ -1137,11 +1141,11 @@
         <v>0</v>
       </c>
       <c r="F12" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G12"/>
       <c r="H12" s="14" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I12" s="6"/>
     </row>

--- a/docs/excel/TMapEvent.xlsx
+++ b/docs/excel/TMapEvent.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
   <si>
     <t>Id</t>
   </si>
@@ -279,10 +279,6 @@
     <t>eventsicon/3003.png</t>
   </si>
   <si>
-    <t>eventsicon/3003.png</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Params</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -384,6 +380,18 @@
   </si>
   <si>
     <t>60001-10;60001-20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>eventsicon/3008.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>eventsicon/3004.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>eventsicon/3005.png</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -832,8 +840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -875,7 +883,7 @@
         <v>31</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
@@ -901,7 +909,7 @@
         <v>21</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>21</v>
@@ -943,7 +951,7 @@
         <v>32</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -966,11 +974,11 @@
         <v>1</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I5" s="6"/>
     </row>
@@ -991,11 +999,11 @@
         <v>1</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>52</v>
+        <v>63</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="14" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I6" s="6"/>
     </row>
@@ -1016,11 +1024,11 @@
         <v>1</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G7" s="12"/>
       <c r="H7" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I7" s="6"/>
     </row>
@@ -1041,10 +1049,10 @@
         <v>1</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="6"/>
@@ -1066,10 +1074,10 @@
         <v>1</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="G9" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="H9" s="11"/>
       <c r="I9" s="6"/>
@@ -1091,11 +1099,11 @@
         <v>0</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>51</v>
+        <v>64</v>
       </c>
       <c r="G10"/>
       <c r="H10" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I10" s="6"/>
     </row>
@@ -1116,11 +1124,11 @@
         <v>0</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="G11"/>
       <c r="H11" s="14" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="I11" s="6"/>
     </row>
@@ -1145,7 +1153,7 @@
       </c>
       <c r="G12"/>
       <c r="H12" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I12" s="6"/>
     </row>

--- a/docs/excel/TMapEvent.xlsx
+++ b/docs/excel/TMapEvent.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="66">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="64">
   <si>
     <t>Id</t>
   </si>
@@ -260,10 +260,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>红包翻翻乐</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>女仆商店</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -307,20 +303,6 @@
         <family val="2"/>
       </rPr>
       <t>-2</t>
-    </r>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>-3</t>
     </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -838,10 +820,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="A7" sqref="A7:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -883,7 +865,7 @@
         <v>31</v>
       </c>
       <c r="H1" s="12" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
@@ -909,7 +891,7 @@
         <v>21</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="H2" s="12" t="s">
         <v>21</v>
@@ -951,7 +933,7 @@
         <v>32</v>
       </c>
       <c r="H4" s="9" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -974,11 +956,11 @@
         <v>1</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="I5" s="6"/>
     </row>
@@ -999,23 +981,23 @@
         <v>1</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="14" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>1003</v>
+        <v>2001</v>
       </c>
       <c r="B7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D7" s="6">
         <v>3</v>
@@ -1024,23 +1006,23 @@
         <v>1</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G7" s="12"/>
-      <c r="H7" s="14" t="s">
-        <v>55</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="G7" s="12" t="s">
+        <v>59</v>
+      </c>
+      <c r="H7" s="11"/>
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>2001</v>
+        <v>2002</v>
       </c>
       <c r="B8">
         <v>2</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="D8" s="6">
         <v>3</v>
@@ -1049,42 +1031,42 @@
         <v>1</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>2002</v>
+        <v>3001</v>
       </c>
       <c r="B9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D9" s="6">
         <v>3</v>
       </c>
       <c r="E9" s="15">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="G9" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="H9" s="11"/>
+      <c r="G9"/>
+      <c r="H9" s="14" t="s">
+        <v>54</v>
+      </c>
       <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>3001</v>
+        <v>3002</v>
       </c>
       <c r="B10">
         <v>3</v>
@@ -1099,17 +1081,17 @@
         <v>0</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G10"/>
       <c r="H10" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>3002</v>
+        <v>3003</v>
       </c>
       <c r="B11">
         <v>3</v>
@@ -1124,37 +1106,22 @@
         <v>0</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>65</v>
+        <v>50</v>
       </c>
       <c r="G11"/>
       <c r="H11" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>3003</v>
-      </c>
-      <c r="B12">
-        <v>3</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="D12" s="6">
-        <v>3</v>
-      </c>
-      <c r="E12" s="15">
-        <v>0</v>
-      </c>
-      <c r="F12" s="12" t="s">
-        <v>51</v>
-      </c>
+      <c r="A12"/>
+      <c r="B12"/>
+      <c r="C12"/>
+      <c r="D12" s="6"/>
+      <c r="E12" s="10"/>
+      <c r="F12"/>
       <c r="G12"/>
-      <c r="H12" s="14" t="s">
-        <v>58</v>
-      </c>
       <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.2">
@@ -1162,7 +1129,7 @@
       <c r="B13"/>
       <c r="C13"/>
       <c r="D13" s="6"/>
-      <c r="E13" s="10"/>
+      <c r="E13" s="11"/>
       <c r="F13"/>
       <c r="G13"/>
       <c r="I13" s="6"/>
@@ -1172,7 +1139,7 @@
       <c r="B14"/>
       <c r="C14"/>
       <c r="D14" s="6"/>
-      <c r="E14" s="11"/>
+      <c r="E14" s="7"/>
       <c r="F14"/>
       <c r="G14"/>
       <c r="I14" s="6"/>
@@ -1182,7 +1149,7 @@
       <c r="B15"/>
       <c r="C15"/>
       <c r="D15" s="6"/>
-      <c r="E15" s="7"/>
+      <c r="E15" s="11"/>
       <c r="F15"/>
       <c r="G15"/>
       <c r="I15" s="6"/>
@@ -1197,21 +1164,11 @@
       <c r="G16"/>
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A17"/>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17" s="6"/>
-      <c r="E17" s="11"/>
-      <c r="F17"/>
-      <c r="G17"/>
+    <row r="17" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I17" s="6"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="18" spans="9:9" x14ac:dyDescent="0.2">
       <c r="I18" s="6"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="I19" s="6"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/docs/excel/TMapEvent.xlsx
+++ b/docs/excel/TMapEvent.xlsx
@@ -11,7 +11,7 @@
     <sheet name="@Types" sheetId="2" r:id="rId2"/>
     <sheet name="#" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -361,10 +361,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>60001-10;60001-20</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>eventsicon/3008.png</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -374,6 +370,10 @@
   </si>
   <si>
     <t>eventsicon/3005.png</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>60002-10;60002-20</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -823,7 +823,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:XFD7"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -956,7 +956,7 @@
         <v>1</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="14" t="s">
@@ -981,7 +981,7 @@
         <v>1</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="14" t="s">
@@ -1006,7 +1006,7 @@
         <v>1</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G7" s="12" t="s">
         <v>59</v>
@@ -1031,10 +1031,10 @@
         <v>1</v>
       </c>
       <c r="F8" s="12" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="G8" s="12" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="6"/>
@@ -1056,7 +1056,7 @@
         <v>0</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="G9"/>
       <c r="H9" s="14" t="s">
@@ -1081,7 +1081,7 @@
         <v>0</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="G10"/>
       <c r="H10" s="14" t="s">

--- a/docs/excel/TMapEvent.xlsx
+++ b/docs/excel/TMapEvent.xlsx
@@ -16,12 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="63">
   <si>
     <t>Id</t>
-  </si>
-  <si>
-    <t>uint32</t>
   </si>
   <si>
     <t>RepeatCheck:true MakeIndex:true json:"id"</t>
@@ -123,10 +120,6 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>uint32</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>Price</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -171,20 +164,6 @@
   </si>
   <si>
     <t>建筑</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>u</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <rFont val="Verdana"/>
-        <family val="2"/>
-      </rPr>
-      <t>int32</t>
-    </r>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -374,6 +353,14 @@
   </si>
   <si>
     <t>60002-10;60002-20</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>int32</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -823,7 +810,7 @@
   <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -847,64 +834,64 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C1" s="12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D1" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G1" s="12" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>31</v>
-      </c>
       <c r="H1" s="12" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="L1" s="6"/>
       <c r="M1" s="6"/>
       <c r="N1" s="6"/>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>1</v>
+      <c r="A2" s="12" t="s">
+        <v>61</v>
       </c>
       <c r="B2" s="12" t="s">
-        <v>39</v>
+        <v>62</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="12" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>26</v>
+        <v>62</v>
       </c>
       <c r="F2" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G2" s="12" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="H2" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I2" s="6"/>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" s="8"/>
       <c r="G3" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="L3" s="9"/>
       <c r="M3" s="9"/>
@@ -912,28 +899,28 @@
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A4" s="12" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D4" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="F4" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="E4" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="G4" s="16" t="s">
-        <v>32</v>
-      </c>
       <c r="H4" s="9" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
@@ -947,7 +934,7 @@
         <v>1</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D5" s="6">
         <v>3</v>
@@ -956,11 +943,11 @@
         <v>1</v>
       </c>
       <c r="F5" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G5" s="12"/>
       <c r="H5" s="14" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="I5" s="6"/>
     </row>
@@ -972,7 +959,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D6" s="6">
         <v>3</v>
@@ -981,11 +968,11 @@
         <v>1</v>
       </c>
       <c r="F6" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G6" s="12"/>
       <c r="H6" s="14" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="I6" s="6"/>
     </row>
@@ -997,7 +984,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D7" s="6">
         <v>3</v>
@@ -1006,10 +993,10 @@
         <v>1</v>
       </c>
       <c r="F7" s="12" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="G7" s="12" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H7" s="11"/>
       <c r="I7" s="6"/>
@@ -1022,7 +1009,7 @@
         <v>2</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="D8" s="6">
         <v>3</v>
@@ -1031,10 +1018,10 @@
         <v>1</v>
       </c>
       <c r="F8" s="12" t="s">
+        <v>57</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>60</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>63</v>
       </c>
       <c r="H8" s="11"/>
       <c r="I8" s="6"/>
@@ -1047,7 +1034,7 @@
         <v>3</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D9" s="6">
         <v>3</v>
@@ -1056,11 +1043,11 @@
         <v>0</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="G9"/>
       <c r="H9" s="14" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="I9" s="6"/>
     </row>
@@ -1072,7 +1059,7 @@
         <v>3</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="D10" s="6">
         <v>3</v>
@@ -1081,11 +1068,11 @@
         <v>0</v>
       </c>
       <c r="F10" s="12" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="G10"/>
       <c r="H10" s="14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="I10" s="6"/>
     </row>
@@ -1097,7 +1084,7 @@
         <v>3</v>
       </c>
       <c r="C11" s="9" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="D11" s="6">
         <v>3</v>
@@ -1106,11 +1093,11 @@
         <v>0</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="G11"/>
       <c r="H11" s="14" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="I11" s="6"/>
     </row>
@@ -1198,59 +1185,59 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="D2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="E3" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="F3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="G3" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="H3" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1276,10 +1263,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="16" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B1" s="16" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -1287,7 +1274,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="16" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -1295,7 +1282,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -1303,7 +1290,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
